--- a/Results/comparison_results/Hard_comparison/Hard_normal_comparison_Results.xlsx
+++ b/Results/comparison_results/Hard_comparison/Hard_normal_comparison_Results.xlsx
@@ -471,12 +471,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot13 to location (6, 10) and remove the toolkit.
-</t>
+          <t>Move Robot40 to location (4, 8) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -488,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -497,38 +496,36 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot39 to location (8, 12) and remove the liquid spill.
-</t>
+          <t>Move Robot40 to location (6, 2) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot31 to location (12, 10) and remove the large debris.
-</t>
+          <t>Move Robot9 to location (12, 3) and remove the large debris.</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -549,12 +546,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot22 to location (5, 2) and remove the dust.
-</t>
+          <t>Move Robot35 to location (2, 11) and remove the dust.</t>
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -566,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -575,12 +571,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot23 to location (10, 12) and remove the grass.
-</t>
+          <t>Move Robot26 to location (12, 1) and remove the grass.</t>
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -601,8 +596,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot6 to location (8, 2) and remove the small debris.
-</t>
+          <t>Move Robot41 to location (4, 11) and remove the small debris.</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -627,8 +621,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot45 to location (2, 8) and remove the vehicle.
-</t>
+          <t>Move Robot2 to location (9, 1) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -653,8 +646,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot21 to location (1, 10) and remove the construction materials.
-</t>
+          <t>Move Robot28 to location (11, 6) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -679,8 +671,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot8 to location (8, 8) and remove the tree branches.
-</t>
+          <t>Move Robot39 to location (6, 1) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -705,8 +696,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Move Robot31 to location (1, 11) and remove the screws.
-</t>
+          <t>Move Robot28 to location (2, 8) and remove the screws.</t>
         </is>
       </c>
       <c r="B11" t="b">

--- a/Results/comparison_results/Hard_comparison/Hard_normal_comparison_Results.xlsx
+++ b/Results/comparison_results/Hard_comparison/Hard_normal_comparison_Results.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -500,22 +500,22 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>

--- a/Results/comparison_results/Hard_comparison/Hard_normal_comparison_Results.xlsx
+++ b/Results/comparison_results/Hard_comparison/Hard_normal_comparison_Results.xlsx
@@ -434,8 +434,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
@@ -471,11 +473,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move Robot40 to location (4, 8) and remove the toolkit.</t>
+          <t>Move Robot21 to location (6, 12) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -487,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -496,7 +498,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move Robot40 to location (6, 2) and remove the liquid spill.</t>
+          <t>Move Robot41 to location (1, 11) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -521,7 +523,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move Robot9 to location (12, 3) and remove the large debris.</t>
+          <t>Move Robot9 to location (1, 5) and remove the large debris.</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -546,11 +548,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move Robot35 to location (2, 11) and remove the dust.</t>
+          <t>Move Robot42 to location (1, 11) and remove the dust.</t>
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -571,11 +573,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move Robot26 to location (12, 1) and remove the grass.</t>
+          <t>Move Robot32 to location (3, 9) and remove the grass.</t>
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -587,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -596,7 +598,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move Robot41 to location (4, 11) and remove the small debris.</t>
+          <t>Move Robot14 to location (11, 12) and remove the small debris.</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -621,11 +623,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move Robot2 to location (9, 1) and remove the vehicle.</t>
+          <t>Move Robot39 to location (6, 4) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -637,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -646,7 +648,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move Robot28 to location (11, 6) and remove the construction materials.</t>
+          <t>Move Robot15 to location (11, 2) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -671,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move Robot39 to location (6, 1) and remove the tree branches.</t>
+          <t>Move Robot2 to location (1, 10) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -696,11 +698,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Move Robot28 to location (2, 8) and remove the screws.</t>
+          <t>Move Robot26 to location (1, 3) and remove the screws.</t>
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -712,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>

--- a/Results/comparison_results/Hard_comparison/Hard_normal_comparison_Results.xlsx
+++ b/Results/comparison_results/Hard_comparison/Hard_normal_comparison_Results.xlsx
@@ -473,32 +473,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move Robot21 to location (6, 12) and remove the toolkit.</t>
+          <t>Move Robot21 to location (4, 7) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move Robot41 to location (1, 11) and remove the liquid spill.</t>
+          <t>Move Robot48 to location (6, 5) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -523,7 +523,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move Robot9 to location (1, 5) and remove the large debris.</t>
+          <t>Move Robot35 to location (3, 3) and remove the large debris.</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -548,11 +548,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move Robot42 to location (1, 11) and remove the dust.</t>
+          <t>Move Robot15 to location (3, 4) and remove the dust.</t>
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -573,7 +573,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move Robot32 to location (3, 9) and remove the grass.</t>
+          <t>Move Robot29 to location (9, 10) and remove the grass.</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -598,7 +598,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move Robot14 to location (11, 12) and remove the small debris.</t>
+          <t>Move Robot31 to location (8, 12) and remove the small debris.</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -623,11 +623,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move Robot39 to location (6, 4) and remove the vehicle.</t>
+          <t>Move Robot13 to location (7, 5) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -648,32 +648,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move Robot15 to location (11, 2) and remove the construction materials.</t>
+          <t>Move Robot50 to location (5, 12) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move Robot2 to location (1, 10) and remove the tree branches.</t>
+          <t>Move Robot9 to location (11, 2) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -698,26 +698,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Move Robot26 to location (1, 3) and remove the screws.</t>
+          <t>Move Robot40 to location (10, 3) and remove the screws.</t>
         </is>
       </c>
       <c r="B11" t="b">
         <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
